--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H2">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I2">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J2">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N2">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O2">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P2">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q2">
-        <v>202.2138700298327</v>
+        <v>23.26752528733488</v>
       </c>
       <c r="R2">
-        <v>1819.924830268494</v>
+        <v>209.407727586014</v>
       </c>
       <c r="S2">
-        <v>0.02189824294510347</v>
+        <v>0.003666992659605758</v>
       </c>
       <c r="T2">
-        <v>0.02189824294510347</v>
+        <v>0.003666992659605757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H3">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I3">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J3">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P3">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q3">
-        <v>108.7092879252437</v>
+        <v>73.69307746378153</v>
       </c>
       <c r="R3">
-        <v>978.3835913271931</v>
+        <v>663.2376971740339</v>
       </c>
       <c r="S3">
-        <v>0.01177239917828083</v>
+        <v>0.01161412616022984</v>
       </c>
       <c r="T3">
-        <v>0.01177239917828083</v>
+        <v>0.01161412616022984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H4">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I4">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J4">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N4">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O4">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P4">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q4">
-        <v>501.3156791756681</v>
+        <v>464.7223257215766</v>
       </c>
       <c r="R4">
-        <v>4511.841112581013</v>
+        <v>4182.50093149419</v>
       </c>
       <c r="S4">
-        <v>0.05428872180310257</v>
+        <v>0.07324085119200628</v>
       </c>
       <c r="T4">
-        <v>0.05428872180310256</v>
+        <v>0.07324085119200627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.851111</v>
+        <v>45.31778466666666</v>
       </c>
       <c r="H5">
-        <v>200.553333</v>
+        <v>135.953354</v>
       </c>
       <c r="I5">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="J5">
-        <v>0.1215550702639513</v>
+        <v>0.1102361023838286</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N5">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O5">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P5">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q5">
-        <v>310.2311821051153</v>
+        <v>137.7788752137991</v>
       </c>
       <c r="R5">
-        <v>2792.080638946038</v>
+        <v>1240.009876924192</v>
       </c>
       <c r="S5">
-        <v>0.03359570633746439</v>
+        <v>0.02171413237198676</v>
       </c>
       <c r="T5">
-        <v>0.03359570633746439</v>
+        <v>0.02171413237198676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>299.591797</v>
       </c>
       <c r="I6">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J6">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N6">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O6">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P6">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q6">
-        <v>302.0723505032051</v>
+        <v>51.27317206588077</v>
       </c>
       <c r="R6">
-        <v>2718.651154528846</v>
+        <v>461.4585485929269</v>
       </c>
       <c r="S6">
-        <v>0.03271216617011356</v>
+        <v>0.008080719512643273</v>
       </c>
       <c r="T6">
-        <v>0.03271216617011356</v>
+        <v>0.008080719512643272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>299.591797</v>
       </c>
       <c r="I7">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J7">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P7">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q7">
         <v>162.3927682125041</v>
@@ -883,10 +883,10 @@
         <v>1461.534913912537</v>
       </c>
       <c r="S7">
-        <v>0.01758591678365414</v>
+        <v>0.025593314357864</v>
       </c>
       <c r="T7">
-        <v>0.01758591678365413</v>
+        <v>0.025593314357864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>299.591797</v>
       </c>
       <c r="I8">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J8">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N8">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O8">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P8">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q8">
-        <v>748.8784302004786</v>
+        <v>1024.079160775588</v>
       </c>
       <c r="R8">
-        <v>6739.905871804308</v>
+        <v>9216.712446980295</v>
       </c>
       <c r="S8">
-        <v>0.08109790786585719</v>
+        <v>0.1613962258145007</v>
       </c>
       <c r="T8">
-        <v>0.08109790786585719</v>
+        <v>0.1613962258145007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>299.591797</v>
       </c>
       <c r="I9">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="J9">
-        <v>0.1815821327429069</v>
+        <v>0.2429203181515272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N9">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O9">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P9">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q9">
-        <v>463.4314271521268</v>
+        <v>303.6145824982062</v>
       </c>
       <c r="R9">
-        <v>4170.882844369142</v>
+        <v>2732.531242483856</v>
       </c>
       <c r="S9">
-        <v>0.05018614192328204</v>
+        <v>0.04785005846651923</v>
       </c>
       <c r="T9">
-        <v>0.05018614192328204</v>
+        <v>0.04785005846651923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H10">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I10">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J10">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N10">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O10">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P10">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q10">
-        <v>44.7826424771829</v>
+        <v>8.466660102189222</v>
       </c>
       <c r="R10">
-        <v>403.043782294646</v>
+        <v>76.199940919703</v>
       </c>
       <c r="S10">
-        <v>0.004849623740173628</v>
+        <v>0.00133435679397347</v>
       </c>
       <c r="T10">
-        <v>0.004849623740173627</v>
+        <v>0.00133435679397347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H11">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I11">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J11">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N11">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O11">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P11">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q11">
-        <v>24.07495180418189</v>
+        <v>26.81566823566589</v>
       </c>
       <c r="R11">
-        <v>216.674566237637</v>
+        <v>241.341014120993</v>
       </c>
       <c r="S11">
-        <v>0.002607136411670743</v>
+        <v>0.004226184665892905</v>
       </c>
       <c r="T11">
-        <v>0.002607136411670743</v>
+        <v>0.004226184665892905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H12">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I12">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J12">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N12">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O12">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P12">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q12">
-        <v>111.0222598747453</v>
+        <v>169.1046179253617</v>
       </c>
       <c r="R12">
-        <v>999.200338872708</v>
+        <v>1521.941561328255</v>
       </c>
       <c r="S12">
-        <v>0.01202287666366759</v>
+        <v>0.02665111072105622</v>
       </c>
       <c r="T12">
-        <v>0.01202287666366758</v>
+        <v>0.02665111072105622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.80496566666667</v>
+        <v>16.49037766666667</v>
       </c>
       <c r="H13">
-        <v>44.414897</v>
+        <v>49.471133</v>
       </c>
       <c r="I13">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="J13">
-        <v>0.02691980155523597</v>
+        <v>0.04011305879538658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N13">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O13">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P13">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q13">
-        <v>68.7043480817491</v>
+        <v>50.13540938675378</v>
       </c>
       <c r="R13">
-        <v>618.3391327357419</v>
+        <v>451.218684480784</v>
       </c>
       <c r="S13">
-        <v>0.007440164739724012</v>
+        <v>0.007901406614463978</v>
       </c>
       <c r="T13">
-        <v>0.00744016473972401</v>
+        <v>0.007901406614463978</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H14">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I14">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J14">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N14">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O14">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P14">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q14">
-        <v>1114.488811636625</v>
+        <v>128.0625623275008</v>
       </c>
       <c r="R14">
-        <v>10030.39930472963</v>
+        <v>1152.563060947507</v>
       </c>
       <c r="S14">
-        <v>0.1206907654416482</v>
+        <v>0.02018282865178051</v>
       </c>
       <c r="T14">
-        <v>0.1206907654416482</v>
+        <v>0.02018282865178051</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H15">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I15">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J15">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N15">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O15">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P15">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q15">
-        <v>599.144287658381</v>
+        <v>405.600690630724</v>
       </c>
       <c r="R15">
-        <v>5392.298588925429</v>
+        <v>3650.406215676516</v>
       </c>
       <c r="S15">
-        <v>0.06488282514141366</v>
+        <v>0.06392320355974795</v>
       </c>
       <c r="T15">
-        <v>0.06488282514141365</v>
+        <v>0.06392320355974795</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H16">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I16">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J16">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N16">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O16">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P16">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q16">
-        <v>2762.969303029862</v>
+        <v>2557.793794903288</v>
       </c>
       <c r="R16">
-        <v>24866.72372726876</v>
+        <v>23020.14415412959</v>
       </c>
       <c r="S16">
-        <v>0.2992088180631967</v>
+        <v>0.4031116740980171</v>
       </c>
       <c r="T16">
-        <v>0.2992088180631967</v>
+        <v>0.4031116740980171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>368.4456226666667</v>
+        <v>249.4253923333333</v>
       </c>
       <c r="H17">
-        <v>1105.336868</v>
+        <v>748.276177</v>
       </c>
       <c r="I17">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="J17">
-        <v>0.6699429954379058</v>
+        <v>0.6067305206692575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N17">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O17">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P17">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q17">
-        <v>1709.819318654783</v>
+        <v>758.3236969375662</v>
       </c>
       <c r="R17">
-        <v>15388.37386789305</v>
+        <v>6824.913272438096</v>
       </c>
       <c r="S17">
-        <v>0.1851605867916473</v>
+        <v>0.1195128143597119</v>
       </c>
       <c r="T17">
-        <v>0.1851605867916473</v>
+        <v>0.1195128143597119</v>
       </c>
     </row>
   </sheetData>
